--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200220.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200220.xlsx
@@ -10301,12 +10301,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -10393,6 +10393,52 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -10400,10 +10446,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10423,48 +10498,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10477,45 +10522,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10523,13 +10530,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10562,7 +10562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10574,7 +10574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10586,31 +10586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10622,19 +10604,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10652,13 +10640,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10676,13 +10670,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10706,13 +10724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10724,19 +10736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10754,36 +10754,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10803,16 +10774,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -10833,163 +10804,192 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11028,14 +11028,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11377,11 +11377,11 @@
   <dimension ref="A1:AN12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V11" sqref="V11"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11548,10 +11548,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="19">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="D2" s="19">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>41</v>
@@ -11585,7 +11585,7 @@
         <v>43</v>
       </c>
       <c r="T2" s="20">
-        <v>43881.3333333333</v>
+        <v>43882.3333333333</v>
       </c>
       <c r="U2" s="15"/>
       <c r="V2" s="21" t="s">
@@ -11595,7 +11595,7 @@
       <c r="X2" s="23"/>
       <c r="Y2" s="23"/>
       <c r="Z2" s="24">
-        <v>43881.4166666667</v>
+        <v>43882.4166666667</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>45</v>
@@ -11624,10 +11624,10 @@
         <v>47</v>
       </c>
       <c r="C3" s="19">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="D3" s="19">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>41</v>
@@ -11655,7 +11655,7 @@
         <v>43</v>
       </c>
       <c r="T3" s="20">
-        <v>43881.3333333333</v>
+        <v>43882.3333333333</v>
       </c>
       <c r="U3" s="15"/>
       <c r="V3" s="21" t="s">
@@ -11665,7 +11665,7 @@
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
       <c r="Z3" s="24">
-        <v>43881.4166666667</v>
+        <v>43882.4166666667</v>
       </c>
       <c r="AA3" s="15" t="s">
         <v>45</v>
@@ -11694,10 +11694,10 @@
         <v>47</v>
       </c>
       <c r="C4" s="19">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="D4" s="19">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>41</v>
@@ -11731,7 +11731,7 @@
         <v>43</v>
       </c>
       <c r="T4" s="20">
-        <v>43881.375</v>
+        <v>43882.3333333333</v>
       </c>
       <c r="U4" s="15"/>
       <c r="V4" s="21" t="s">
@@ -11741,7 +11741,7 @@
       <c r="X4" s="23"/>
       <c r="Y4" s="23"/>
       <c r="Z4" s="24">
-        <v>43881.4166666667</v>
+        <v>43882.4166666667</v>
       </c>
       <c r="AA4" s="15" t="s">
         <v>45</v>
@@ -11770,10 +11770,10 @@
         <v>47</v>
       </c>
       <c r="C5" s="19">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="D5" s="19">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>41</v>
@@ -11807,7 +11807,7 @@
         <v>43</v>
       </c>
       <c r="T5" s="20">
-        <v>43881.375</v>
+        <v>43882.3333333333</v>
       </c>
       <c r="U5" s="15"/>
       <c r="V5" s="21" t="s">
@@ -11817,7 +11817,7 @@
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
       <c r="Z5" s="24">
-        <v>43881.4166666667</v>
+        <v>43882.4166666667</v>
       </c>
       <c r="AA5" s="15" t="s">
         <v>45</v>
@@ -11846,10 +11846,10 @@
         <v>47</v>
       </c>
       <c r="C6" s="19">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="D6" s="19">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>41</v>
@@ -11881,7 +11881,7 @@
         <v>43</v>
       </c>
       <c r="T6" s="20">
-        <v>43881.375</v>
+        <v>43882.3333333333</v>
       </c>
       <c r="U6" s="15"/>
       <c r="V6" s="21" t="s">
@@ -11891,7 +11891,7 @@
       <c r="X6" s="23"/>
       <c r="Y6" s="23"/>
       <c r="Z6" s="24">
-        <v>43881.4166666667</v>
+        <v>43882.4166666667</v>
       </c>
       <c r="AA6" s="15" t="s">
         <v>45</v>
@@ -11920,10 +11920,10 @@
         <v>47</v>
       </c>
       <c r="C7" s="19">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="D7" s="19">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>41</v>
@@ -11953,7 +11953,7 @@
         <v>43</v>
       </c>
       <c r="T7" s="20">
-        <v>43881.375</v>
+        <v>43882.3333333333</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="21" t="s">
@@ -11963,7 +11963,7 @@
       <c r="X7" s="23"/>
       <c r="Y7" s="23"/>
       <c r="Z7" s="24">
-        <v>43881.4166666667</v>
+        <v>43882.4166666667</v>
       </c>
       <c r="AA7" s="15" t="s">
         <v>45</v>
@@ -11992,10 +11992,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="19">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="D8" s="19">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>41</v>
@@ -12031,7 +12031,7 @@
         <v>43</v>
       </c>
       <c r="T8" s="20">
-        <v>43881.375</v>
+        <v>43882.3333333333</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="21" t="s">
@@ -12041,7 +12041,7 @@
       <c r="X8" s="23"/>
       <c r="Y8" s="23"/>
       <c r="Z8" s="24">
-        <v>43881.4166666667</v>
+        <v>43882.4166666667</v>
       </c>
       <c r="AA8" s="15" t="s">
         <v>45</v>
@@ -12070,10 +12070,10 @@
         <v>47</v>
       </c>
       <c r="C9" s="19">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="D9" s="19">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>41</v>
@@ -12105,7 +12105,7 @@
         <v>43</v>
       </c>
       <c r="T9" s="20">
-        <v>43881.375</v>
+        <v>43882.3333333333</v>
       </c>
       <c r="U9" s="15"/>
       <c r="V9" s="21" t="s">
@@ -12115,7 +12115,7 @@
       <c r="X9" s="23"/>
       <c r="Y9" s="23"/>
       <c r="Z9" s="24">
-        <v>43881.4166666667</v>
+        <v>43882.4166666667</v>
       </c>
       <c r="AA9" s="15" t="s">
         <v>45</v>
@@ -12144,10 +12144,10 @@
         <v>47</v>
       </c>
       <c r="C10" s="19">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="D10" s="19">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>41</v>
@@ -12179,7 +12179,7 @@
         <v>43</v>
       </c>
       <c r="T10" s="20">
-        <v>43881.375</v>
+        <v>43882.3333333333</v>
       </c>
       <c r="U10" s="15"/>
       <c r="V10" s="21" t="s">
@@ -12189,7 +12189,7 @@
       <c r="X10" s="23"/>
       <c r="Y10" s="23"/>
       <c r="Z10" s="24">
-        <v>43881.4166666667</v>
+        <v>43882.4166666667</v>
       </c>
       <c r="AA10" s="15" t="s">
         <v>45</v>
@@ -12218,10 +12218,10 @@
         <v>47</v>
       </c>
       <c r="C11" s="19">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="D11" s="19">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>41</v>
@@ -12251,7 +12251,7 @@
         <v>43</v>
       </c>
       <c r="T11" s="20">
-        <v>43881.4305555556</v>
+        <v>43882.3333333333</v>
       </c>
       <c r="U11" s="15"/>
       <c r="V11" s="21" t="s">
@@ -12261,7 +12261,7 @@
       <c r="X11" s="23"/>
       <c r="Y11" s="23"/>
       <c r="Z11" s="24">
-        <v>43881.4166666667</v>
+        <v>43882.4166666667</v>
       </c>
       <c r="AA11" s="15" t="s">
         <v>45</v>
@@ -12290,10 +12290,10 @@
         <v>47</v>
       </c>
       <c r="C12" s="19">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="D12" s="19">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -12325,7 +12325,7 @@
         <v>43</v>
       </c>
       <c r="T12" s="20">
-        <v>43881.375</v>
+        <v>43882.3333333333</v>
       </c>
       <c r="U12" s="15"/>
       <c r="V12" s="21" t="s">
@@ -12335,7 +12335,7 @@
       <c r="X12" s="23"/>
       <c r="Y12" s="23"/>
       <c r="Z12" s="24">
-        <v>43881.4166666667</v>
+        <v>43882.4166666667</v>
       </c>
       <c r="AA12" s="15" t="s">
         <v>45</v>
@@ -12361,14 +12361,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B5 B6 B7 B8 B9 B10 B11 B12 B2:B4 B13:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA5 AE5 AK5 AA6 AE6 AK6 AA7 AE7 AK7 AA8 AE8 AK8 AA9 AE9 AK9 AA10 AE10 AK10 AA11 AE11 AK11 AA12 AE12 AK12 AA2:AA4 AA13:AA1048576 AE2:AE4 AE13:AE1048576 AK2:AK4 AK13:AK1048576">
-      <formula1>"手动,自动"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H6 H7 H8 H9 H10 H11 H12 H2:H4 H13:H1048576">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F5 F6 F7 F8 F9 F10 F11 F12 F2:F4 F13:F1048576">
       <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G6 G7 G8 G9 G10 G11 G12 G2:G4 G13:G1048576">
+      <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG5 AM5 AG6 AM6 AG7 AM7 AG8 AM8 AG9 AM9 AG10 AM10 AG11 AM11 AG12 AM12 AG2:AG4 AG13:AG1048576 AM2:AM4 AM13:AM1048576">
       <formula1>"核查通过,核查未通过"</formula1>
@@ -12376,11 +12376,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC5 AC6 AC7 AC8 AC9 AC10 AC11 AC12 AC2:AC4 AC13:AC1048576">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G6 G7 G8 G9 G10 G11 G12 G2:G4 G13:G1048576">
-      <formula1>INDIRECT($F2)</formula1>
-    </dataValidation>
     <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:L5 M5:O5 P5:R5 I6:L6 M6:O6 P6:R6 I7:L7 M7:O7 P7:R7 I8:K8 M8 N8 P8:R8 I9:L9 M9:O9 P9:R9 I10:L10 M10:O10 P10:R10 I11:L11 M11:O11 P11:R11 I12:L12 M12:O12 P12:R12 I2:L4 M2:O4 P2:R4 I13:L1048576 M13:O1048576 P13:R1048576">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA5 AE5 AK5 AA6 AE6 AK6 AA7 AE7 AK7 AA8 AE8 AK8 AA9 AE9 AK9 AA10 AE10 AK10 AA11 AE11 AK11 AA12 AE12 AK12 AA2:AA4 AA13:AA1048576 AE2:AE4 AE13:AE1048576 AK2:AK4 AK13:AK1048576">
+      <formula1>"手动,自动"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
